--- a/Projects/Pennink-Model/cases/Series4/Series4.xlsx
+++ b/Projects/Pennink-Model/cases/Series4/Series4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/GRWMODELS/python/mf6lab/Projects/Pennink-Model/cases/Series4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF09D8C5-99ED-1640-BB88-4D99DC5C38C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA7177F-CEF8-744E-9527-9825A2BBC34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="1420" windowWidth="20120" windowHeight="21340" tabRatio="751" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14440" yWindow="1060" windowWidth="20120" windowHeight="21340" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NAM" sheetId="1" r:id="rId1"/>
@@ -3480,8 +3480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView zoomScale="221" zoomScaleNormal="221" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A410" zoomScale="221" zoomScaleNormal="221" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7899,7 +7899,7 @@
         <v>306</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.15">
@@ -11773,7 +11773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -11827,7 +11827,7 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="0">B4</f>
+        <f t="shared" ref="C4" si="0">B4</f>
         <v>60</v>
       </c>
       <c r="D4">
